--- a/Revised decison matrix using M2.xlsx
+++ b/Revised decison matrix using M2.xlsx
@@ -1,23 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10513"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/heshifan/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/felipenoris/tmp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22CB4A27-739D-3642-9EF4-340712A645C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C353BCB8-5EC8-0143-BDD3-A1B661DAACD7}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="760" windowWidth="28040" windowHeight="17040" xr2:uid="{52D9C27D-0EF6-DD41-9728-0267E68F7539}"/>
+    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="17040" xr2:uid="{52D9C27D-0EF6-DD41-9728-0267E68F7539}"/>
   </bookViews>
   <sheets>
-    <sheet name="Expert_1" sheetId="2" r:id="rId1"/>
-    <sheet name="Expert_2" sheetId="3" r:id="rId2"/>
-    <sheet name="Expert_3" sheetId="4" r:id="rId3"/>
-    <sheet name="Expert_4" sheetId="5" r:id="rId4"/>
-    <sheet name="Expert_5" sheetId="6" r:id="rId5"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Expert_1" r:id="rId4" sheetId="2"/>
+    <sheet name="Expert_2" r:id="rId6" sheetId="3"/>
+    <sheet name="Expert_3" r:id="rId7" sheetId="4"/>
+    <sheet name="Expert_4" r:id="rId8" sheetId="5"/>
+    <sheet name="Expert_5" r:id="rId9" sheetId="6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="25">
   <si>
     <t>Alternative_1</t>
   </si>
@@ -110,19 +111,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -150,7 +144,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -166,7 +160,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -461,413 +455,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EFFED9E-14F2-8748-8DC3-8E1FB8E40587}">
-  <dimension ref="A1:U6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
+  <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
-  <sheetData>
-    <row r="1" spans="1:21">
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" t="s">
-        <v>13</v>
-      </c>
-      <c r="P1" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>15</v>
-      </c>
-      <c r="R1" t="s">
-        <v>16</v>
-      </c>
-      <c r="S1" t="s">
-        <v>17</v>
-      </c>
-      <c r="T1" t="s">
-        <v>18</v>
-      </c>
-      <c r="U1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21">
-      <c r="A2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B2">
-        <v>9.991093417741701E-10</v>
-      </c>
-      <c r="C2">
-        <v>0.37433815761019629</v>
-      </c>
-      <c r="D2">
-        <v>0.5029897258135918</v>
-      </c>
-      <c r="E2">
-        <v>0.59309242341358603</v>
-      </c>
-      <c r="F2">
-        <v>0.73502502981362583</v>
-      </c>
-      <c r="G2">
-        <v>0.64752960307069118</v>
-      </c>
-      <c r="H2">
-        <v>0.11111111211022039</v>
-      </c>
-      <c r="I2">
-        <v>9.991093416772146E-10</v>
-      </c>
-      <c r="J2">
-        <v>0.37440084083593567</v>
-      </c>
-      <c r="K2">
-        <v>0.3828125009991093</v>
-      </c>
-      <c r="L2">
-        <v>0.59094120534318795</v>
-      </c>
-      <c r="M2">
-        <v>0.92967453723584081</v>
-      </c>
-      <c r="N2">
-        <v>9.9910934150097592E-10</v>
-      </c>
-      <c r="O2">
-        <v>0.97376538303724203</v>
-      </c>
-      <c r="P2">
-        <v>0.43863076746360802</v>
-      </c>
-      <c r="Q2">
-        <v>0.60256337582259456</v>
-      </c>
-      <c r="R2">
-        <v>0.73090921408922804</v>
-      </c>
-      <c r="S2">
-        <v>9.9910934185479374E-10</v>
-      </c>
-      <c r="T2">
-        <v>0.898349663394445</v>
-      </c>
-      <c r="U2">
-        <v>0.91588522375847203</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21">
-      <c r="A3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3">
-        <v>0.76184160673132428</v>
-      </c>
-      <c r="C3">
-        <v>0.67774162350904354</v>
-      </c>
-      <c r="D3">
-        <v>0.35031898218516788</v>
-      </c>
-      <c r="E3">
-        <v>0.65387128127152738</v>
-      </c>
-      <c r="F3">
-        <v>0.77033481401191062</v>
-      </c>
-      <c r="G3">
-        <v>0.83526714855615236</v>
-      </c>
-      <c r="H3">
-        <v>0.77199594512963721</v>
-      </c>
-      <c r="I3">
-        <v>0.57655529799326144</v>
-      </c>
-      <c r="J3">
-        <v>0.65515203611936024</v>
-      </c>
-      <c r="K3">
-        <v>0.85401097194887554</v>
-      </c>
-      <c r="L3">
-        <v>0.40659340759251589</v>
-      </c>
-      <c r="M3">
-        <v>9.9910934161201189E-10</v>
-      </c>
-      <c r="N3">
-        <v>0.67215383695976372</v>
-      </c>
-      <c r="O3">
-        <v>9.9910934186611805E-10</v>
-      </c>
-      <c r="P3">
-        <v>5.6250000999109269E-2</v>
-      </c>
-      <c r="Q3">
-        <v>0.18823529511675632</v>
-      </c>
-      <c r="R3">
-        <v>0.31617647158734452</v>
-      </c>
-      <c r="S3">
-        <v>0.51501148917911566</v>
-      </c>
-      <c r="T3">
-        <v>0.23460403726389678</v>
-      </c>
-      <c r="U3">
-        <v>0.77794455768894033</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21">
-      <c r="A4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4">
-        <v>0.256097561974719</v>
-      </c>
-      <c r="C4">
-        <v>0.28037383277481021</v>
-      </c>
-      <c r="D4">
-        <v>0.43521959842660435</v>
-      </c>
-      <c r="E4">
-        <v>0.30586660210402472</v>
-      </c>
-      <c r="F4">
-        <v>1.5384616383724662E-2</v>
-      </c>
-      <c r="G4">
-        <v>9.991093419149002E-10</v>
-      </c>
-      <c r="H4">
-        <v>0.17345155819821992</v>
-      </c>
-      <c r="I4">
-        <v>0.36453576319138703</v>
-      </c>
-      <c r="J4">
-        <v>0.26704905514343807</v>
-      </c>
-      <c r="K4">
-        <v>0.29871419949344347</v>
-      </c>
-      <c r="L4">
-        <v>9.9910934182841185E-10</v>
-      </c>
-      <c r="M4">
-        <v>0.21252533007928104</v>
-      </c>
-      <c r="N4">
-        <v>0.66393027231932478</v>
-      </c>
-      <c r="O4">
-        <v>0.45285863324833081</v>
-      </c>
-      <c r="P4">
-        <v>0.40625000099910935</v>
-      </c>
-      <c r="Q4">
-        <v>0.58820735936248691</v>
-      </c>
-      <c r="R4">
-        <v>0.15441176570499163</v>
-      </c>
-      <c r="S4">
-        <v>0.77292247000133607</v>
-      </c>
-      <c r="T4">
-        <v>9.9910934184185208E-10</v>
-      </c>
-      <c r="U4">
-        <v>9.9910934185813265E-10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21">
-      <c r="A5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5">
-        <v>0.83731888301991719</v>
-      </c>
-      <c r="C5">
-        <v>0.44902550717448919</v>
-      </c>
-      <c r="D5">
-        <v>0.3125000009991093</v>
-      </c>
-      <c r="E5">
-        <v>9.9910934175016739E-10</v>
-      </c>
-      <c r="F5">
-        <v>0.69759509771380701</v>
-      </c>
-      <c r="G5">
-        <v>2.0618557700140202E-2</v>
-      </c>
-      <c r="H5">
-        <v>0.2156862755089132</v>
-      </c>
-      <c r="I5">
-        <v>0.59169716772874315</v>
-      </c>
-      <c r="J5">
-        <v>9.9910934182800136E-10</v>
-      </c>
-      <c r="K5">
-        <v>9.9910934194593829E-10</v>
-      </c>
-      <c r="L5">
-        <v>0.26577707476343154</v>
-      </c>
-      <c r="M5">
-        <v>0.47251022396152731</v>
-      </c>
-      <c r="N5">
-        <v>9.9910934192058893E-10</v>
-      </c>
-      <c r="O5">
-        <v>0.27133923952655226</v>
-      </c>
-      <c r="P5">
-        <v>9.9910934191608472E-10</v>
-      </c>
-      <c r="Q5">
-        <v>9.9910934124359805E-10</v>
-      </c>
-      <c r="R5">
-        <v>9.9910934170914336E-10</v>
-      </c>
-      <c r="S5">
-        <v>0.23602484571960614</v>
-      </c>
-      <c r="T5">
-        <v>0.41040462527656602</v>
-      </c>
-      <c r="U5">
-        <v>0.14285714385625212</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21">
-      <c r="A6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B6">
-        <v>0.37308465658885775</v>
-      </c>
-      <c r="C6">
-        <v>9.9910934186541391E-10</v>
-      </c>
-      <c r="D6">
-        <v>9.9910934127367475E-10</v>
-      </c>
-      <c r="E6">
-        <v>0.32203389930419402</v>
-      </c>
-      <c r="F6">
-        <v>9.9910934181005878E-10</v>
-      </c>
-      <c r="G6">
-        <v>0.33613290806824592</v>
-      </c>
-      <c r="H6">
-        <v>9.9910934165407381E-10</v>
-      </c>
-      <c r="I6">
-        <v>0.66082947589693364</v>
-      </c>
-      <c r="J6">
-        <v>0.84794760805760327</v>
-      </c>
-      <c r="K6">
-        <v>0.2734375009991093</v>
-      </c>
-      <c r="L6">
-        <v>0.97198262665660629</v>
-      </c>
-      <c r="M6">
-        <v>3.4482759619798929E-2</v>
-      </c>
-      <c r="N6">
-        <v>0.25827814669447346</v>
-      </c>
-      <c r="O6">
-        <v>2.941176570499163E-2</v>
-      </c>
-      <c r="P6">
-        <v>0.59375000099910935</v>
-      </c>
-      <c r="Q6">
-        <v>0.39174485274682774</v>
-      </c>
-      <c r="R6">
-        <v>0.83874251026776148</v>
-      </c>
-      <c r="S6">
-        <v>0.73801343037532641</v>
-      </c>
-      <c r="T6">
-        <v>0.39645380015346066</v>
-      </c>
-      <c r="U6">
-        <v>0.41985698348766282</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1562B3D-BD57-DC44-B3CB-62B8766FD1EC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
   <dimension ref="A1:U6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:21">
       <c r="B1" t="s">
@@ -936,64 +541,64 @@
         <v>20</v>
       </c>
       <c r="B2">
-        <v>3.3326515902481529E-9</v>
+        <v>1.0</v>
       </c>
       <c r="C2">
-        <v>3.3326515902480635E-9</v>
+        <v>0.29166666668243135</v>
       </c>
       <c r="D2">
-        <v>0.3382099777845492</v>
+        <v>0.6785714285714286</v>
       </c>
       <c r="E2">
-        <v>0.77526317114661369</v>
+        <v>0.3</v>
       </c>
       <c r="F2">
-        <v>3.3326515902492613E-9</v>
+        <v>0.23529411764705882</v>
       </c>
       <c r="G2">
-        <v>0.10077519713110113</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="H2">
-        <v>0.5363876813240398</v>
+        <v>0.030303030313525325</v>
       </c>
       <c r="I2">
-        <v>0.61182056093084347</v>
+        <v>1.0</v>
       </c>
       <c r="J2">
-        <v>0.16546762923193212</v>
+        <v>1.0</v>
       </c>
       <c r="K2">
-        <v>0.41993417905231961</v>
+        <v>0.3076923076923077</v>
       </c>
       <c r="L2">
-        <v>0.12222222555487373</v>
+        <v>0.7916666666806127</v>
       </c>
       <c r="M2">
-        <v>0.88130827662730371</v>
+        <v>0.05128205129003621</v>
       </c>
       <c r="N2">
-        <v>0.67523235687554972</v>
+        <v>0.030303030303030304</v>
       </c>
       <c r="O2">
-        <v>0.88789388994692076</v>
+        <v>0.26666666666666666</v>
       </c>
       <c r="P2">
-        <v>3.3326515902480499E-9</v>
+        <v>0.6519045361255872</v>
       </c>
       <c r="Q2">
-        <v>0.46000000333265156</v>
+        <v>0.6124999999978172</v>
       </c>
       <c r="R2">
-        <v>3.3326515902492154E-9</v>
+        <v>0.0</v>
       </c>
       <c r="S2">
-        <v>8.620689988437566E-2</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="T2">
-        <v>0.66923077256342067</v>
+        <v>0.5103448275986263</v>
       </c>
       <c r="U2">
-        <v>0.87911944195929326</v>
+        <v>0.39393939396960037</v>
       </c>
     </row>
     <row r="3" spans="1:21">
@@ -1001,64 +606,64 @@
         <v>21</v>
       </c>
       <c r="B3">
-        <v>0.58528309863518913</v>
+        <v>0.32993939396855243</v>
       </c>
       <c r="C3">
-        <v>0.6777443005189725</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="D3">
-        <v>3.3326515902480093E-9</v>
+        <v>0.0</v>
       </c>
       <c r="E3">
-        <v>0.32738095571360387</v>
+        <v>0.5603603603765581</v>
       </c>
       <c r="F3">
-        <v>0.77031606159701005</v>
+        <v>0.17462061749586688</v>
       </c>
       <c r="G3">
-        <v>0.8350500017865361</v>
+        <v>0.18888888888888888</v>
       </c>
       <c r="H3">
-        <v>3.3326515902497497E-9</v>
+        <v>0.47619047619047616</v>
       </c>
       <c r="I3">
-        <v>3.3326515902482596E-9</v>
+        <v>0.0759183673616769</v>
       </c>
       <c r="J3">
-        <v>3.3326515902485995E-9</v>
+        <v>0.0</v>
       </c>
       <c r="K3">
-        <v>0.85307995432748596</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="L3">
-        <v>0.65161197639047108</v>
+        <v>1.0</v>
       </c>
       <c r="M3">
-        <v>0.65206551266317658</v>
+        <v>0.4923076923239236</v>
       </c>
       <c r="N3">
-        <v>3.3326515902487071E-9</v>
+        <v>0.4877551020545889</v>
       </c>
       <c r="O3">
-        <v>0.37008724961382677</v>
+        <v>0.3</v>
       </c>
       <c r="P3">
-        <v>0.68493108658788393</v>
+        <v>0.4402402402584589</v>
       </c>
       <c r="Q3">
-        <v>0.57168373000543771</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="R3">
-        <v>0.80326653080915678</v>
+        <v>0.23529411764705882</v>
       </c>
       <c r="S3">
-        <v>3.3326515902481218E-9</v>
+        <v>0.17857142857142858</v>
       </c>
       <c r="T3">
-        <v>5.3846157178805365E-2</v>
+        <v>0.7741935483870968</v>
       </c>
       <c r="U3">
-        <v>0.72155411130232483</v>
+        <v>0.7575757575871129</v>
       </c>
     </row>
     <row r="4" spans="1:21">
@@ -1066,64 +671,64 @@
         <v>22</v>
       </c>
       <c r="B4">
-        <v>0.58963085990380204</v>
+        <v>0.18750000001091427</v>
       </c>
       <c r="C4">
-        <v>0.64292387833400055</v>
+        <v>0.8</v>
       </c>
       <c r="D4">
-        <v>0.63508945658539828</v>
+        <v>0.7526315789575166</v>
       </c>
       <c r="E4">
-        <v>3.3326515902465523E-9</v>
+        <v>0.0</v>
       </c>
       <c r="F4">
-        <v>0.42537564846075043</v>
+        <v>0.735294117661397</v>
       </c>
       <c r="G4">
-        <v>2.3255817286139888E-2</v>
+        <v>0.8</v>
       </c>
       <c r="H4">
-        <v>1.8697252545435351E-2</v>
+        <v>0.9523809523809523</v>
       </c>
       <c r="I4">
-        <v>0.16546545144057406</v>
+        <v>0.7419354838709677</v>
       </c>
       <c r="J4">
-        <v>0.151079140023299</v>
+        <v>0.21052631578947367</v>
       </c>
       <c r="K4">
-        <v>9.9876605125175807E-2</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="L4">
-        <v>0.42513956726688706</v>
+        <v>0.9583333333333334</v>
       </c>
       <c r="M4">
-        <v>3.3326515902454141E-9</v>
+        <v>1.0</v>
       </c>
       <c r="N4">
-        <v>0.66393726031736111</v>
+        <v>0.6571428571428571</v>
       </c>
       <c r="O4">
-        <v>0.25000000333265149</v>
+        <v>0.5666666666666667</v>
       </c>
       <c r="P4">
-        <v>0.60656110951900755</v>
+        <v>0.9428571428571428</v>
       </c>
       <c r="Q4">
-        <v>3.332651590248296E-9</v>
+        <v>0.5</v>
       </c>
       <c r="R4">
-        <v>3.3326515902480391E-9</v>
+        <v>0.47058823529411764</v>
       </c>
       <c r="S4">
-        <v>0.85615133000445198</v>
+        <v>1.0</v>
       </c>
       <c r="T4">
-        <v>3.3326515902480677E-9</v>
+        <v>0.09523809523809523</v>
       </c>
       <c r="U4">
-        <v>3.3326515902201152E-9</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="5" spans="1:21">
@@ -1131,64 +736,64 @@
         <v>23</v>
       </c>
       <c r="B5">
-        <v>0.87343567933785404</v>
+        <v>0.55</v>
       </c>
       <c r="C5">
-        <v>7.6530615577549477E-2</v>
+        <v>0.8428571428571429</v>
       </c>
       <c r="D5">
-        <v>0.65478707279174664</v>
+        <v>1.0</v>
       </c>
       <c r="E5">
-        <v>0.23214286047550864</v>
+        <v>0.6428571428571429</v>
       </c>
       <c r="F5">
-        <v>0.39160839494104316</v>
+        <v>0.23529411764705882</v>
       </c>
       <c r="G5">
-        <v>0.33326188627649311</v>
+        <v>0.7937500000092089</v>
       </c>
       <c r="H5">
-        <v>0.55524845676877366</v>
+        <v>0.9523809523809523</v>
       </c>
       <c r="I5">
-        <v>0.22285714618979435</v>
+        <v>0.3870967741935484</v>
       </c>
       <c r="J5">
-        <v>0.48041977671065927</v>
+        <v>0.7894736842105263</v>
       </c>
       <c r="K5">
-        <v>3.3326515902446076E-9</v>
+        <v>0.6148148148252981</v>
       </c>
       <c r="L5">
-        <v>3.332651590244675E-9</v>
+        <v>0.0</v>
       </c>
       <c r="M5">
-        <v>5.0632914725056578E-2</v>
+        <v>0.5428571428571428</v>
       </c>
       <c r="N5">
-        <v>0.2782922293559843</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="O5">
-        <v>3.3326515902480478E-9</v>
+        <v>0.0800000000132059</v>
       </c>
       <c r="P5">
-        <v>0.1676300611361197</v>
+        <v>0.33851351351163517</v>
       </c>
       <c r="Q5">
-        <v>0.79309259477105654</v>
+        <v>0.6235000000109141</v>
       </c>
       <c r="R5">
-        <v>0.58809329333329607</v>
+        <v>1.0</v>
       </c>
       <c r="S5">
-        <v>0.5489498134659585</v>
+        <v>0.6250000000109142</v>
       </c>
       <c r="T5">
-        <v>0.79450478234665689</v>
+        <v>0.8064516129032258</v>
       </c>
       <c r="U5">
-        <v>0.66312322800132606</v>
+        <v>0.5454545454686015</v>
       </c>
     </row>
     <row r="6" spans="1:21">
@@ -1196,79 +801,78 @@
         <v>24</v>
       </c>
       <c r="B6">
-        <v>8.1081084413732601E-2</v>
+        <v>0.5757575757678066</v>
       </c>
       <c r="C6">
-        <v>0.12755102374081478</v>
+        <v>0.30714285714285716</v>
       </c>
       <c r="D6">
-        <v>0.68405885427530677</v>
+        <v>0.3</v>
       </c>
       <c r="E6">
-        <v>2.9761908094556276E-2</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="F6">
-        <v>0.49871112179984955</v>
+        <v>1.0</v>
       </c>
       <c r="G6">
-        <v>3.332651590247616E-9</v>
+        <v>0.2</v>
       </c>
       <c r="H6">
-        <v>0.56656459235691281</v>
+        <v>0.8969696969811622</v>
       </c>
       <c r="I6">
-        <v>0.63651746845129598</v>
+        <v>0.4857142857142857</v>
       </c>
       <c r="J6">
-        <v>0.84738365714961994</v>
+        <v>0.0</v>
       </c>
       <c r="K6">
-        <v>0.42841791241621979</v>
+        <v>0.8528074572528186</v>
       </c>
       <c r="L6">
-        <v>0.88763469374088155</v>
+        <v>0.35294117648481926</v>
       </c>
       <c r="M6">
-        <v>0.22784810459847427</v>
+        <v>0.7128205128312404</v>
       </c>
       <c r="N6">
-        <v>0.30555555888820707</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="O6">
-        <v>0.60750562548558973</v>
+        <v>0.7105263158051747</v>
       </c>
       <c r="P6">
-        <v>0.8389404353009855</v>
+        <v>0.6285714285714286</v>
       </c>
       <c r="Q6">
-        <v>0.57845629145853872</v>
+        <v>1.0</v>
       </c>
       <c r="R6">
-        <v>0.81479873563231198</v>
+        <v>1.0</v>
       </c>
       <c r="S6">
-        <v>0.46551724471196193</v>
+        <v>0.0</v>
       </c>
       <c r="T6">
-        <v>0.58402243392617492</v>
+        <v>0.4838709677419355</v>
       </c>
       <c r="U6">
-        <v>0.54509353102390323</v>
+        <v>0.3888888888888889</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09E3D480-5DB1-FC45-AE20-4BF2CBBDDC24}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
   <dimension ref="A1:U6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:21">
       <c r="B1" t="s">
@@ -1337,64 +941,64 @@
         <v>20</v>
       </c>
       <c r="B2">
-        <v>0.53303543371003315</v>
+        <v>0.9062500000126199</v>
       </c>
       <c r="C2">
-        <v>0.46025766275281055</v>
+        <v>0.25</v>
       </c>
       <c r="D2">
-        <v>2.4992121897121289E-9</v>
+        <v>0.7505661230889434</v>
       </c>
       <c r="E2">
-        <v>0.51572327293946374</v>
+        <v>0.39375000001234606</v>
       </c>
       <c r="F2">
-        <v>0.73502039719298484</v>
+        <v>0.39154411766289926</v>
       </c>
       <c r="G2">
-        <v>0.64754587673995134</v>
+        <v>0.59375</v>
       </c>
       <c r="H2">
-        <v>0.66590803786158015</v>
+        <v>0.11155303031714048</v>
       </c>
       <c r="I2">
-        <v>0.22651933951578671</v>
+        <v>0.9187500000126197</v>
       </c>
       <c r="J2">
-        <v>2.4992121897116479E-9</v>
+        <v>0.918750000011733</v>
       </c>
       <c r="K2">
-        <v>0.59547140838708179</v>
+        <v>0.48269230770602023</v>
       </c>
       <c r="L2">
-        <v>0.59093752306173841</v>
+        <v>0.8668406072231453</v>
       </c>
       <c r="M2">
-        <v>0.63870967991856697</v>
+        <v>0.13253205129365164</v>
       </c>
       <c r="N2">
-        <v>0.70869544236529325</v>
+        <v>0.0613636363542423</v>
       </c>
       <c r="O2">
-        <v>0.83661251980983886</v>
+        <v>0.3</v>
       </c>
       <c r="P2">
-        <v>2.4992121897119035E-9</v>
+        <v>0.6216216216216216</v>
       </c>
       <c r="Q2">
-        <v>0.47794117896980043</v>
+        <v>0.7875000000031378</v>
       </c>
       <c r="R2">
-        <v>0.73090933627683075</v>
+        <v>0.08124999997519322</v>
       </c>
       <c r="S2">
-        <v>0.45137631452818122</v>
+        <v>1.0</v>
       </c>
       <c r="T2">
-        <v>0.89827166848023443</v>
+        <v>0.49159482760033163</v>
       </c>
       <c r="U2">
-        <v>0.91545821671817373</v>
+        <v>0.5693602693962097</v>
       </c>
     </row>
     <row r="3" spans="1:21">
@@ -1402,64 +1006,64 @@
         <v>21</v>
       </c>
       <c r="B3">
-        <v>0.50299401447526004</v>
+        <v>0.5299393939685524</v>
       </c>
       <c r="C3">
-        <v>2.4992121897131331E-9</v>
+        <v>0.8041666666806583</v>
       </c>
       <c r="D3">
-        <v>0.39649808416104487</v>
+        <v>0.08124999997519344</v>
       </c>
       <c r="E3">
-        <v>0.55949122829788978</v>
+        <v>0.7603603603765582</v>
       </c>
       <c r="F3">
-        <v>0.38364780124135056</v>
+        <v>0.21428571428571427</v>
       </c>
       <c r="G3">
-        <v>0.60365853908457801</v>
+        <v>0.36388888891285676</v>
       </c>
       <c r="H3">
-        <v>0.77199185937723847</v>
+        <v>0.3982142857469625</v>
       </c>
       <c r="I3">
-        <v>0.57655819728109148</v>
+        <v>0.27591836736385966</v>
       </c>
       <c r="J3">
-        <v>0.65516661364788653</v>
+        <v>0.08124999997519333</v>
       </c>
       <c r="K3">
-        <v>0.358490568536948</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L3">
-        <v>0.42753623438327015</v>
+        <v>0.8805147058932006</v>
       </c>
       <c r="M3">
-        <v>0.52656203254964884</v>
+        <v>0.6673076923239235</v>
       </c>
       <c r="N3">
-        <v>0.67215089829256769</v>
+        <v>0.5428571428571428</v>
       </c>
       <c r="O3">
-        <v>0.33349376463517272</v>
+        <v>0.4750000000138247</v>
       </c>
       <c r="P3">
-        <v>0.52007068677823642</v>
+        <v>0.5945945945945946</v>
       </c>
       <c r="Q3">
-        <v>2.4992121897124217E-9</v>
+        <v>0.7416666666821133</v>
       </c>
       <c r="R3">
-        <v>0.67362090699725274</v>
+        <v>0.17506458664192934</v>
       </c>
       <c r="S3">
-        <v>0.51500632663748258</v>
+        <v>0.3629032258291598</v>
       </c>
       <c r="T3">
-        <v>2.499212189711415E-9</v>
+        <v>0.75</v>
       </c>
       <c r="U3">
-        <v>2.4992121897145277E-9</v>
+        <v>0.5825757575871131</v>
       </c>
     </row>
     <row r="4" spans="1:21">
@@ -1467,64 +1071,64 @@
         <v>22</v>
       </c>
       <c r="B4">
-        <v>0.10179640968484086</v>
+        <v>0.0636904762003509</v>
       </c>
       <c r="C4">
-        <v>0.79102941053180231</v>
+        <v>0.8937500000123468</v>
       </c>
       <c r="D4">
-        <v>0.1675977678623406</v>
+        <v>0.7338815789592221</v>
       </c>
       <c r="E4">
-        <v>2.4992121897107611E-9</v>
+        <v>0.15624999996954442</v>
       </c>
       <c r="F4">
-        <v>2.4992121897118567E-9</v>
+        <v>0.7680776529110724</v>
       </c>
       <c r="G4">
-        <v>0.17360313188943088</v>
+        <v>0.8652243589825127</v>
       </c>
       <c r="H4">
-        <v>-3.7420184641606569E-9</v>
+        <v>0.8750000000100049</v>
       </c>
       <c r="I4">
-        <v>2.4992121897115924E-9</v>
+        <v>0.6606854838307819</v>
       </c>
       <c r="J4">
-        <v>0.17283950867205161</v>
+        <v>0.3987815839548623</v>
       </c>
       <c r="K4">
-        <v>8.8050316964620914E-2</v>
+        <v>0.5966346154063822</v>
       </c>
       <c r="L4">
-        <v>2.4992121897120453E-9</v>
+        <v>0.8058035714394728</v>
       </c>
       <c r="M4">
-        <v>0.29309567463920649</v>
+        <v>0.9187500000152573</v>
       </c>
       <c r="N4">
-        <v>2.4992121897130119E-9</v>
+        <v>0.6383928571558373</v>
       </c>
       <c r="O4">
-        <v>2.4992121897119514E-9</v>
+        <v>0.7606636784461751</v>
       </c>
       <c r="P4">
-        <v>0.15441176720509447</v>
+        <v>0.8491071428697204</v>
       </c>
       <c r="Q4">
-        <v>0.58823476425984966</v>
+        <v>0.31132812501091417</v>
       </c>
       <c r="R4">
-        <v>0.42358797407690635</v>
+        <v>0.5177389706078659</v>
       </c>
       <c r="S4">
-        <v>0.377049182827081</v>
+        <v>0.8250000000109146</v>
       </c>
       <c r="T4">
-        <v>0.46569053706737884</v>
+        <v>0.2702380952582887</v>
       </c>
       <c r="U4">
-        <v>0.17122725153069757</v>
+        <v>0.17500000000532054</v>
       </c>
     </row>
     <row r="5" spans="1:21">
@@ -1532,64 +1136,64 @@
         <v>23</v>
       </c>
       <c r="B5">
-        <v>0.88490436765856884</v>
+        <v>0.5687500000123468</v>
       </c>
       <c r="C5">
-        <v>0.55369080184949349</v>
+        <v>0.8241071428714353</v>
       </c>
       <c r="D5">
-        <v>0.1675977678623406</v>
+        <v>0.9812500000109142</v>
       </c>
       <c r="E5">
-        <v>0.55441579843415656</v>
+        <v>0.5230654762068662</v>
       </c>
       <c r="F5">
-        <v>0.69759902543734542</v>
+        <v>0.43529411767594883</v>
       </c>
       <c r="G5">
-        <v>0.53190177420599472</v>
+        <v>0.96875</v>
       </c>
       <c r="H5">
-        <v>0.20800000249921211</v>
+        <v>0.7757575757709899</v>
       </c>
       <c r="I5">
-        <v>8.2872930676007692E-2</v>
+        <v>0.5832661290652825</v>
       </c>
       <c r="J5">
-        <v>0.18518518768439729</v>
+        <v>0.6614697851793917</v>
       </c>
       <c r="K5">
-        <v>0.28585243542504152</v>
+        <v>0.6335648148289132</v>
       </c>
       <c r="L5">
-        <v>8.826322133145674E-2</v>
+        <v>0.08124999997519355</v>
       </c>
       <c r="M5">
-        <v>2.4992121897120193E-9</v>
+        <v>0.36785714286993454</v>
       </c>
       <c r="N5">
-        <v>0.36388091657957305</v>
+        <v>0.7244318181930633</v>
       </c>
       <c r="O5">
-        <v>0.43577248990330042</v>
+        <v>0.22519230771043972</v>
       </c>
       <c r="P5">
-        <v>0.37126250500625213</v>
+        <v>0.5135135135135135</v>
       </c>
       <c r="Q5">
-        <v>0.79311912483261038</v>
+        <v>0.8235000000109142</v>
       </c>
       <c r="R5">
-        <v>2.4992121897125061E-9</v>
+        <v>0.981250000013438</v>
       </c>
       <c r="S5">
-        <v>2.4992121897123154E-9</v>
+        <v>0.43174342106325836</v>
       </c>
       <c r="T5">
-        <v>0.79403702218504946</v>
+        <v>0.6826420891049694</v>
       </c>
       <c r="U5">
-        <v>0.80289302069047086</v>
+        <v>0.6869739057386489</v>
       </c>
     </row>
     <row r="6" spans="1:21">
@@ -1597,79 +1201,78 @@
         <v>24</v>
       </c>
       <c r="B6">
-        <v>2.4992121897116458E-9</v>
+        <v>0.7507575757808184</v>
       </c>
       <c r="C6">
-        <v>0.43915328221419586</v>
+        <v>0.2883928571568147</v>
       </c>
       <c r="D6">
-        <v>0.78473587630461605</v>
+        <v>0.39375000001173277</v>
       </c>
       <c r="E6">
-        <v>0.52738990866966784</v>
+        <v>0.8153409091063402</v>
       </c>
       <c r="F6">
-        <v>0.49871967405031881</v>
+        <v>0.9720279720378879</v>
       </c>
       <c r="G6">
-        <v>2.4992121897113555E-9</v>
+        <v>0.07471590908182857</v>
       </c>
       <c r="H6">
-        <v>0.42400000249921216</v>
+        <v>0.8782196969828675</v>
       </c>
       <c r="I6">
-        <v>0.49265765664471356</v>
+        <v>0.5044642857279543</v>
       </c>
       <c r="J6">
-        <v>0.5987654345979776</v>
+        <v>0.04567307692053643</v>
       </c>
       <c r="K6">
-        <v>2.4992121897122616E-9</v>
+        <v>0.8095238095238095</v>
       </c>
       <c r="L6">
-        <v>0.61594203148471938</v>
+        <v>0.4341911764848194</v>
       </c>
       <c r="M6">
-        <v>0.53829306558865131</v>
+        <v>0.6940705128312405</v>
       </c>
       <c r="N6">
-        <v>0.56524507397374824</v>
+        <v>0.8285714285714286</v>
       </c>
       <c r="O6">
-        <v>0.64377123992384877</v>
+        <v>0.5355263158058566</v>
       </c>
       <c r="P6">
-        <v>0.8598414426501092</v>
+        <v>0.6937500000345386</v>
       </c>
       <c r="Q6">
-        <v>5.1470590734506237E-2</v>
+        <v>0.9714843750109142</v>
       </c>
       <c r="R6">
-        <v>0.83873001032847849</v>
+        <v>0.9187500000109143</v>
       </c>
       <c r="S6">
-        <v>0.73801296047973974</v>
+        <v>0.2</v>
       </c>
       <c r="T6">
-        <v>0.54825923328876214</v>
+        <v>0.59375</v>
       </c>
       <c r="U6">
-        <v>7.2916669165878786E-2</v>
+        <v>0.3125</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAC1A3BF-377A-3E4D-99B2-D355059E4E58}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
   <dimension ref="A1:U6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:21">
       <c r="B1" t="s">
@@ -1738,64 +1341,64 @@
         <v>20</v>
       </c>
       <c r="B2">
-        <v>0.53303505123474493</v>
+        <v>0.8</v>
       </c>
       <c r="C2">
-        <v>0.23469388088367191</v>
+        <v>0.4174528302109876</v>
       </c>
       <c r="D2">
-        <v>0.47871244350224618</v>
+        <v>0.7826086956429208</v>
       </c>
       <c r="E2">
-        <v>3.332651590249801E-9</v>
+        <v>0.5</v>
       </c>
       <c r="F2">
-        <v>0.73501289207127563</v>
+        <v>0.4352941176613987</v>
       </c>
       <c r="G2">
-        <v>0.37654321320919482</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="H2">
-        <v>6.6225168895565428E-2</v>
+        <v>0.2303030303157081</v>
       </c>
       <c r="I2">
-        <v>0.61182056093084347</v>
+        <v>0.8</v>
       </c>
       <c r="J2">
-        <v>2.2988509079777952E-2</v>
+        <v>0.8</v>
       </c>
       <c r="K2">
-        <v>9.6969700302348485E-2</v>
+        <v>0.3076923077060202</v>
       </c>
       <c r="L2">
-        <v>3.3326515902483055E-9</v>
+        <v>0.6668406072209625</v>
       </c>
       <c r="M2">
-        <v>0.33333333666598491</v>
+        <v>0.2512820512922189</v>
       </c>
       <c r="N2">
-        <v>0.70869135961325469</v>
+        <v>0.2</v>
       </c>
       <c r="O2">
-        <v>0.18471337912882982</v>
+        <v>0.13584905662468869</v>
       </c>
       <c r="P2">
-        <v>0.43882780929807502</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="Q2">
-        <v>0.70994404944715561</v>
+        <v>0.6124999999978172</v>
       </c>
       <c r="R2">
-        <v>0.67978220867410033</v>
+        <v>0.2</v>
       </c>
       <c r="S2">
-        <v>0.31839008863368851</v>
+        <v>1.0</v>
       </c>
       <c r="T2">
-        <v>0.51351351684616497</v>
+        <v>0.31034482759644355</v>
       </c>
       <c r="U2">
-        <v>0.29906542389339913</v>
+        <v>0.3939393939393939</v>
       </c>
     </row>
     <row r="3" spans="1:21">
@@ -1803,64 +1406,64 @@
         <v>21</v>
       </c>
       <c r="B3">
-        <v>0.56215197971748754</v>
+        <v>0.3939393939393939</v>
       </c>
       <c r="C3">
-        <v>0.39795918700612093</v>
+        <v>0.7166666666666667</v>
       </c>
       <c r="D3">
-        <v>3.3326515902480093E-9</v>
+        <v>0.2</v>
       </c>
       <c r="E3">
-        <v>0.61047310381196918</v>
+        <v>0.6190476190476191</v>
       </c>
       <c r="F3">
-        <v>0.1170212799283962</v>
+        <v>0.37462061749804965</v>
       </c>
       <c r="G3">
-        <v>3.3326515902510501E-9</v>
+        <v>0.18888888888888888</v>
       </c>
       <c r="H3">
-        <v>0.7719776610331246</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="I3">
-        <v>0.33333333666598491</v>
+        <v>0.12</v>
       </c>
       <c r="J3">
-        <v>0.6547802321791002</v>
+        <v>0.2</v>
       </c>
       <c r="K3">
-        <v>0.40000000333265162</v>
+        <v>0.4379017209325552</v>
       </c>
       <c r="L3">
-        <v>0.17391304681091235</v>
+        <v>0.8</v>
       </c>
       <c r="M3">
-        <v>0.6537759259062137</v>
+        <v>0.4923076923239236</v>
       </c>
       <c r="N3">
-        <v>0.66983517795067338</v>
+        <v>0.6877551020567717</v>
       </c>
       <c r="O3">
-        <v>0.39242608551294444</v>
+        <v>0.3</v>
       </c>
       <c r="P3">
-        <v>0.6849325388941665</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="Q3">
-        <v>0.57168414841458537</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="R3">
-        <v>0.72709669227906781</v>
+        <v>0.2702702702702703</v>
       </c>
       <c r="S3">
-        <v>0.51499585615866428</v>
+        <v>0.1629032258291598</v>
       </c>
       <c r="T3">
-        <v>0.3417146503415705</v>
+        <v>0.8652465003193532</v>
       </c>
       <c r="U3">
-        <v>0.77792208645629535</v>
+        <v>0.7575757575757576</v>
       </c>
     </row>
     <row r="4" spans="1:21">
@@ -1868,64 +1471,64 @@
         <v>22</v>
       </c>
       <c r="B4">
-        <v>0.39529604448717898</v>
+        <v>0.2636904762003509</v>
       </c>
       <c r="C4">
-        <v>0.82115651646517118</v>
+        <v>1.0</v>
       </c>
       <c r="D4">
-        <v>0.63504885406185485</v>
+        <v>0.5526315789553339</v>
       </c>
       <c r="E4">
-        <v>0.25316288388488972</v>
+        <v>0.2</v>
       </c>
       <c r="F4">
-        <v>0.31521503154838326</v>
+        <v>0.5680776529110726</v>
       </c>
       <c r="G4">
-        <v>0.3731596671004796</v>
+        <v>1.0</v>
       </c>
       <c r="H4">
-        <v>1.8607347745051423E-2</v>
+        <v>0.8</v>
       </c>
       <c r="I4">
-        <v>8.0808084140732331E-2</v>
+        <v>0.5419354838463915</v>
       </c>
       <c r="J4">
-        <v>0.3770599575118519</v>
+        <v>0.19878158395267953</v>
       </c>
       <c r="K4">
-        <v>3.3326515902459968E-9</v>
+        <v>0.41538461540181204</v>
       </c>
       <c r="L4">
-        <v>0.47999135765240641</v>
+        <v>1.0</v>
       </c>
       <c r="M4">
-        <v>3.3326515902454141E-9</v>
+        <v>0.8</v>
       </c>
       <c r="N4">
-        <v>0.25203252365785472</v>
+        <v>0.45714285714285713</v>
       </c>
       <c r="O4">
-        <v>0.45285789592828996</v>
+        <v>0.631578947368421</v>
       </c>
       <c r="P4">
-        <v>0.45622667963861074</v>
+        <v>0.7428571428571429</v>
       </c>
       <c r="Q4">
-        <v>0.38978887603440904</v>
+        <v>0.4375</v>
       </c>
       <c r="R4">
-        <v>3.3326515902480391E-9</v>
+        <v>0.65</v>
       </c>
       <c r="S4">
-        <v>0.85615133000445198</v>
+        <v>1.0</v>
       </c>
       <c r="T4">
-        <v>0.46568977699022551</v>
+        <v>0.09523809523809523</v>
       </c>
       <c r="U4">
-        <v>3.3326515902201152E-9</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="5" spans="1:21">
@@ -1933,64 +1536,64 @@
         <v>23</v>
       </c>
       <c r="B5">
-        <v>0.32051282384547203</v>
+        <v>0.75</v>
       </c>
       <c r="C5">
-        <v>0.55368620037519634</v>
+        <v>0.6428571428571429</v>
       </c>
       <c r="D5">
-        <v>0.22727273060537875</v>
+        <v>0.8</v>
       </c>
       <c r="E5">
-        <v>0.41139127372822648</v>
+        <v>0.47619047619047616</v>
       </c>
       <c r="F5">
-        <v>3.3326515902488981E-9</v>
+        <v>0.2667807486920212</v>
       </c>
       <c r="G5">
-        <v>0.21604938604870089</v>
+        <v>0.7937500000070262</v>
       </c>
       <c r="H5">
-        <v>3.3326515902482012E-9</v>
+        <v>0.9523809523809523</v>
       </c>
       <c r="I5">
-        <v>0.59163510657150054</v>
+        <v>0.44</v>
       </c>
       <c r="J5">
-        <v>3.3326515902480801E-9</v>
+        <v>0.8614697851793917</v>
       </c>
       <c r="K5">
-        <v>0.28723636115549633</v>
+        <v>0.8148148148274809</v>
       </c>
       <c r="L5">
-        <v>0.28766454478020592</v>
+        <v>0.2</v>
       </c>
       <c r="M5">
-        <v>0.47260473400163427</v>
+        <v>0.5428571428571428</v>
       </c>
       <c r="N5">
-        <v>0.1843790749619042</v>
+        <v>0.6181818181930633</v>
       </c>
       <c r="O5">
-        <v>3.3326515902480478E-9</v>
+        <v>0.2800000000153886</v>
       </c>
       <c r="P5">
-        <v>3.3326515902479399E-9</v>
+        <v>0.33851351351163517</v>
       </c>
       <c r="Q5">
-        <v>0.71540294859818421</v>
+        <v>0.6875</v>
       </c>
       <c r="R5">
-        <v>0.58809914274859443</v>
+        <v>0.8</v>
       </c>
       <c r="S5">
-        <v>0.36399057108089489</v>
+        <v>0.625</v>
       </c>
       <c r="T5">
-        <v>0.58558558891823709</v>
+        <v>0.8826420891049693</v>
       </c>
       <c r="U5">
-        <v>0.80243612659725716</v>
+        <v>0.7454545454686015</v>
       </c>
     </row>
     <row r="6" spans="1:21">
@@ -1998,79 +1601,78 @@
         <v>24</v>
       </c>
       <c r="B6">
-        <v>3.332651590247951E-9</v>
+        <v>0.5757575757575758</v>
       </c>
       <c r="C6">
-        <v>3.3326515902480499E-9</v>
+        <v>0.10714285714285714</v>
       </c>
       <c r="D6">
-        <v>0.78471515565835437</v>
+        <v>0.5</v>
       </c>
       <c r="E6">
-        <v>0.52738738188490153</v>
+        <v>0.7090909091024519</v>
       </c>
       <c r="F6">
-        <v>3.3326515902480995E-9</v>
+        <v>0.8</v>
       </c>
       <c r="G6">
-        <v>0.33619892713727506</v>
+        <v>0.13636363636363635</v>
       </c>
       <c r="H6">
-        <v>0.62767426376503244</v>
+        <v>0.6969696969789795</v>
       </c>
       <c r="I6">
-        <v>3.3326515902486334E-9</v>
+        <v>0.6857142857142857</v>
       </c>
       <c r="J6">
-        <v>0.56321839413724917</v>
+        <v>0.2</v>
       </c>
       <c r="K6">
-        <v>0.53647774627982869</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="L6">
-        <v>0.778317476832734</v>
+        <v>0.5529411764848193</v>
       </c>
       <c r="M6">
-        <v>0.53829119190482566</v>
+        <v>0.5128205128312404</v>
       </c>
       <c r="N6">
-        <v>3.3326515902482269E-9</v>
+        <v>0.6860259740357632</v>
       </c>
       <c r="O6">
-        <v>0.45543639072514364</v>
+        <v>0.7105263157894737</v>
       </c>
       <c r="P6">
-        <v>0.57522124227070459</v>
+        <v>0.8285714285714286</v>
       </c>
       <c r="Q6">
-        <v>3.3326515902482649E-9</v>
+        <v>0.8125000000109144</v>
       </c>
       <c r="R6">
-        <v>7.8740190806830118E-3</v>
+        <v>0.8</v>
       </c>
       <c r="S6">
-        <v>3.3326515902492952E-9</v>
+        <v>0.06400000000506423</v>
       </c>
       <c r="T6">
-        <v>3.3326515902483075E-9</v>
+        <v>0.39926962873922284</v>
       </c>
       <c r="U6">
-        <v>0.29906542389339913</v>
+        <v>0.44842767297264663</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C68D6CD-50BD-1043-A312-57FB0E909396}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
   <dimension ref="A1:U6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:21">
       <c r="B1" t="s">
@@ -2139,64 +1741,64 @@
         <v>20</v>
       </c>
       <c r="B2">
-        <v>0.53303767354577891</v>
+        <v>1.0</v>
       </c>
       <c r="C2">
-        <v>1.6393444288760342E-2</v>
+        <v>0.41745283021098767</v>
       </c>
       <c r="D2">
-        <v>1.6658095899269807E-9</v>
+        <v>0.6388888888888888</v>
       </c>
       <c r="E2">
-        <v>0.77528311705612774</v>
+        <v>0.3</v>
       </c>
       <c r="F2">
-        <v>0.73502420365634658</v>
+        <v>0.23529411765921587</v>
       </c>
       <c r="G2">
-        <v>0.31460674323884324</v>
+        <v>0.6111111111111112</v>
       </c>
       <c r="H2">
-        <v>0.66591023405218286</v>
+        <v>0.2303030303157081</v>
       </c>
       <c r="I2">
-        <v>0.15200000166580951</v>
+        <v>0.8</v>
       </c>
       <c r="J2">
-        <v>0.37436030822891403</v>
+        <v>0.8</v>
       </c>
       <c r="K2">
-        <v>1.6658095899270022E-9</v>
+        <v>0.5076923077060201</v>
       </c>
       <c r="L2">
-        <v>0.5206082671565857</v>
+        <v>0.6668406072231452</v>
       </c>
       <c r="M2">
-        <v>0.92966521613172626</v>
+        <v>0.251282051292219</v>
       </c>
       <c r="N2">
-        <v>0.14814814981395766</v>
+        <v>0.2</v>
       </c>
       <c r="O2">
-        <v>0.97041335517243155</v>
+        <v>0.13584905662468869</v>
       </c>
       <c r="P2">
-        <v>0.43882079281370495</v>
+        <v>0.4519045361234044</v>
       </c>
       <c r="Q2">
-        <v>0.70995528988601286</v>
+        <v>0.8125</v>
       </c>
       <c r="R2">
-        <v>0.73089719271290665</v>
+        <v>0.2</v>
       </c>
       <c r="S2">
-        <v>0.45135750277913045</v>
+        <v>1.0</v>
       </c>
       <c r="T2">
-        <v>0.62576687283145382</v>
+        <v>0.31034482759862636</v>
       </c>
       <c r="U2">
-        <v>1.6658095899276888E-9</v>
+        <v>0.5939393939696004</v>
       </c>
     </row>
     <row r="3" spans="1:21">
@@ -2204,64 +1806,64 @@
         <v>21</v>
       </c>
       <c r="B3">
-        <v>0.74147746290168592</v>
+        <v>0.3299393939663697</v>
       </c>
       <c r="C3">
-        <v>1.6658095899270306E-9</v>
+        <v>0.8</v>
       </c>
       <c r="D3">
-        <v>0.39650000734224317</v>
+        <v>0.2</v>
       </c>
       <c r="E3">
-        <v>3.5714287380095237E-2</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="F3">
-        <v>0.63890957126597536</v>
+        <v>0.37462061749804965</v>
       </c>
       <c r="G3">
-        <v>0.77968807521563632</v>
+        <v>0.3888888888888889</v>
       </c>
       <c r="H3">
-        <v>0.77199639010513743</v>
+        <v>0.4857142857142857</v>
       </c>
       <c r="I3">
-        <v>4.8000001665809533E-2</v>
+        <v>0.27591836736385966</v>
       </c>
       <c r="J3">
-        <v>1.6658095899270211E-9</v>
+        <v>0.2</v>
       </c>
       <c r="K3">
-        <v>0.83787337538538298</v>
+        <v>0.4379017209325552</v>
       </c>
       <c r="L3">
-        <v>0.65323932005815855</v>
+        <v>1.0</v>
       </c>
       <c r="M3">
-        <v>0.44761904928485724</v>
+        <v>0.6923076923239235</v>
       </c>
       <c r="N3">
-        <v>0.67141584549848732</v>
+        <v>0.6877551020567717</v>
       </c>
       <c r="O3">
-        <v>0.4383279469238251</v>
+        <v>0.5</v>
       </c>
       <c r="P3">
-        <v>2.6737969580248024E-2</v>
+        <v>0.6402402402584588</v>
       </c>
       <c r="Q3">
-        <v>2.8301888458262356E-2</v>
+        <v>0.7166666666666667</v>
       </c>
       <c r="R3">
-        <v>0.37908496898607097</v>
+        <v>0.35</v>
       </c>
       <c r="S3">
-        <v>1.6658095899269834E-9</v>
+        <v>0.36290322582915985</v>
       </c>
       <c r="T3">
-        <v>0.34167208133090349</v>
+        <v>0.6652465003171705</v>
       </c>
       <c r="U3">
-        <v>0.77794313833661144</v>
+        <v>0.557575757587113</v>
       </c>
     </row>
     <row r="4" spans="1:21">
@@ -2269,64 +1871,64 @@
         <v>22</v>
       </c>
       <c r="B4">
-        <v>0.58964292230311577</v>
+        <v>0.2636904762003509</v>
       </c>
       <c r="C4">
-        <v>0.82124960213432319</v>
+        <v>0.8</v>
       </c>
       <c r="D4">
-        <v>0.17518248341763434</v>
+        <v>0.5526315789575167</v>
       </c>
       <c r="E4">
-        <v>1.6658095899267605E-9</v>
+        <v>0.0</v>
       </c>
       <c r="F4">
-        <v>6.7039107811060927E-2</v>
+        <v>0.5680776529110726</v>
       </c>
       <c r="G4">
-        <v>0.37312958653990047</v>
+        <v>0.9722222222222222</v>
       </c>
       <c r="H4">
-        <v>-4.1426765933555639E-9</v>
+        <v>1.0</v>
       </c>
       <c r="I4">
-        <v>0.36453266287466313</v>
+        <v>0.541935483845009</v>
       </c>
       <c r="J4">
-        <v>7.6923078588886459E-2</v>
+        <v>0.3987815839548623</v>
       </c>
       <c r="K4">
-        <v>0.2987091492501614</v>
+        <v>0.4153846154039948</v>
       </c>
       <c r="L4">
-        <v>0.47997896548606434</v>
+        <v>0.80580357143729</v>
       </c>
       <c r="M4">
-        <v>0.19395360509089676</v>
+        <v>0.8</v>
       </c>
       <c r="N4">
-        <v>3.7037038702846553E-2</v>
+        <v>0.45714285714285713</v>
       </c>
       <c r="O4">
-        <v>1.6658095899269681E-9</v>
+        <v>0.5606636784461752</v>
       </c>
       <c r="P4">
-        <v>1.6658095899270051E-9</v>
+        <v>0.9428571428571428</v>
       </c>
       <c r="Q4">
-        <v>1.6658095899270002E-9</v>
+        <v>0.3</v>
       </c>
       <c r="R4">
-        <v>0.39141592686793131</v>
+        <v>0.65</v>
       </c>
       <c r="S4">
-        <v>0.58783783950364743</v>
+        <v>0.8</v>
       </c>
       <c r="T4">
-        <v>0.11656441884372361</v>
+        <v>0.29523809523809524</v>
       </c>
       <c r="U4">
-        <v>0.24275776256770765</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="5" spans="1:21">
@@ -2334,64 +1936,64 @@
         <v>23</v>
       </c>
       <c r="B5">
-        <v>1.6658095899274808E-9</v>
+        <v>0.75</v>
       </c>
       <c r="C5">
-        <v>0.24590164101007181</v>
+        <v>0.6428571428571429</v>
       </c>
       <c r="D5">
-        <v>0.65479141551771858</v>
+        <v>0.8</v>
       </c>
       <c r="E5">
-        <v>0.55441894610559428</v>
+        <v>0.6428571428571429</v>
       </c>
       <c r="F5">
-        <v>0.12290502959877041</v>
+        <v>0.30303030303030304</v>
       </c>
       <c r="G5">
-        <v>0.32584269829502305</v>
+        <v>0.993750000009209</v>
       </c>
       <c r="H5">
-        <v>0.36295687458502984</v>
+        <v>0.7523809523809524</v>
       </c>
       <c r="I5">
-        <v>0.59172022518757672</v>
+        <v>0.5870967742241193</v>
       </c>
       <c r="J5">
-        <v>0.39838458945643396</v>
+        <v>0.7435897435897436</v>
       </c>
       <c r="K5">
-        <v>3.5502960245691183E-2</v>
+        <v>0.8148148148274809</v>
       </c>
       <c r="L5">
-        <v>1.6658095899266079E-9</v>
+        <v>0.2</v>
       </c>
       <c r="M5">
-        <v>0.47261358404926407</v>
+        <v>0.34285714285714286</v>
       </c>
       <c r="N5">
-        <v>1.6658095899269166E-9</v>
+        <v>0.8181818181930632</v>
       </c>
       <c r="O5">
-        <v>0.43577487558340167</v>
+        <v>0.08</v>
       </c>
       <c r="P5">
-        <v>0.37124411298194598</v>
+        <v>0.5385135135138179</v>
       </c>
       <c r="Q5">
-        <v>0.25471698279788496</v>
+        <v>0.6235000000109141</v>
       </c>
       <c r="R5">
-        <v>0.5880986089649205</v>
+        <v>0.8</v>
       </c>
       <c r="S5">
-        <v>0.54895782081806677</v>
+        <v>0.47368421052631576</v>
       </c>
       <c r="T5">
-        <v>1.6658095899271449E-9</v>
+        <v>0.8826420891049693</v>
       </c>
       <c r="U5">
-        <v>0.67326228023722567</v>
+        <v>0.5454545454545454</v>
       </c>
     </row>
     <row r="6" spans="1:21">
@@ -2399,68 +2001,467 @@
         <v>24</v>
       </c>
       <c r="B6">
-        <v>0.35988006706140413</v>
+        <v>0.7757575757699894</v>
       </c>
       <c r="C6">
-        <v>0.43915820388269416</v>
+        <v>0.10714285714285714</v>
       </c>
       <c r="D6">
-        <v>0.6441065958679878</v>
+        <v>0.3</v>
       </c>
       <c r="E6">
-        <v>0.10119047785628571</v>
+        <v>0.9090909091046346</v>
       </c>
       <c r="F6">
-        <v>1.6658095899269799E-9</v>
+        <v>0.8181818181930632</v>
       </c>
       <c r="G6">
-        <v>1.6658095899268717E-9</v>
+        <v>0.0</v>
       </c>
       <c r="H6">
-        <v>0.62767909001934452</v>
+        <v>0.6969696969811623</v>
       </c>
       <c r="I6">
-        <v>1.6658095899270233E-9</v>
+        <v>0.6857142857142857</v>
       </c>
       <c r="J6">
-        <v>0.21978022144602932</v>
+        <v>0.1282051282051282</v>
       </c>
       <c r="K6">
-        <v>0.53647213087044754</v>
+        <v>0.6528074572506358</v>
       </c>
       <c r="L6">
-        <v>0.82581718466686527</v>
+        <v>0.5529411764848193</v>
       </c>
       <c r="M6">
-        <v>1.6658095899269888E-9</v>
+        <v>0.5128205128312404</v>
       </c>
       <c r="N6">
-        <v>0.5652401766819366</v>
+        <v>0.6285714285714286</v>
       </c>
       <c r="O6">
-        <v>6.8965533899474551E-3</v>
+        <v>0.5105263158051747</v>
       </c>
       <c r="P6">
-        <v>9.0909092574900416E-2</v>
+        <v>0.8285714285714286</v>
       </c>
       <c r="Q6">
-        <v>0.57845747775643241</v>
+        <v>0.8</v>
       </c>
       <c r="R6">
-        <v>1.6658095899272611E-9</v>
+        <v>0.8</v>
       </c>
       <c r="S6">
-        <v>0.29054054220635001</v>
+        <v>0.0</v>
       </c>
       <c r="T6">
-        <v>0.38650306915047211</v>
+        <v>0.3992696287392229</v>
       </c>
       <c r="U6">
-        <v>0.54529829015793418</v>
+        <v>0.24842767297046386</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
+  <dimension ref="A1:U6"/>
+  <sheetViews>
+    <sheetView tabSelected="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:21">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21">
+      <c r="A2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2">
+        <v>0.8</v>
+      </c>
+      <c r="C2">
+        <v>0.21745283020880485</v>
+      </c>
+      <c r="D2">
+        <v>0.8388888888888889</v>
+      </c>
+      <c r="E2">
+        <v>0.5</v>
+      </c>
+      <c r="F2">
+        <v>0.23529411765921587</v>
+      </c>
+      <c r="G2">
+        <v>0.4666666666666667</v>
+      </c>
+      <c r="H2">
+        <v>0.030303030303030304</v>
+      </c>
+      <c r="I2">
+        <v>1.0</v>
+      </c>
+      <c r="J2">
+        <v>1.0</v>
+      </c>
+      <c r="K2">
+        <v>0.5076923077060201</v>
+      </c>
+      <c r="L2">
+        <v>0.7647058823679216</v>
+      </c>
+      <c r="M2">
+        <v>0.05128205128205128</v>
+      </c>
+      <c r="N2">
+        <v>0.0</v>
+      </c>
+      <c r="O2">
+        <v>0.3358490566268715</v>
+      </c>
+      <c r="P2">
+        <v>0.45190453612340437</v>
+      </c>
+      <c r="Q2">
+        <v>0.8125</v>
+      </c>
+      <c r="R2">
+        <v>0.0</v>
+      </c>
+      <c r="S2">
+        <v>0.8555555555555555</v>
+      </c>
+      <c r="T2">
+        <v>0.3103448275862069</v>
+      </c>
+      <c r="U2">
+        <v>0.5925925925925926</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21">
+      <c r="A3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3">
+        <v>0.5299393939685524</v>
+      </c>
+      <c r="C3">
+        <v>0.9166666666666666</v>
+      </c>
+      <c r="D3">
+        <v>0.0</v>
+      </c>
+      <c r="E3">
+        <v>0.7603603603765582</v>
+      </c>
+      <c r="F3">
+        <v>0.3076923077060202</v>
+      </c>
+      <c r="G3">
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="H3">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="I3">
+        <v>0.08571428571428572</v>
+      </c>
+      <c r="J3">
+        <v>0.0</v>
+      </c>
+      <c r="K3">
+        <v>0.6379017209325551</v>
+      </c>
+      <c r="L3">
+        <v>0.8823529411764706</v>
+      </c>
+      <c r="M3">
+        <v>0.6923076923076923</v>
+      </c>
+      <c r="N3">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="O3">
+        <v>0.5</v>
+      </c>
+      <c r="P3">
+        <v>0.6402402402584588</v>
+      </c>
+      <c r="Q3">
+        <v>0.7166666666666667</v>
+      </c>
+      <c r="R3">
+        <v>0.35</v>
+      </c>
+      <c r="S3">
+        <v>0.25</v>
+      </c>
+      <c r="T3">
+        <v>0.6652465003171705</v>
+      </c>
+      <c r="U3">
+        <v>0.557575757587113</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21">
+      <c r="A4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4">
+        <v>0.06369047619816812</v>
+      </c>
+      <c r="C4">
+        <v>1.0</v>
+      </c>
+      <c r="D4">
+        <v>0.5526315789473685</v>
+      </c>
+      <c r="E4">
+        <v>0.0</v>
+      </c>
+      <c r="F4">
+        <v>0.5769230769353904</v>
+      </c>
+      <c r="G4">
+        <v>0.8846153846153846</v>
+      </c>
+      <c r="H4">
+        <v>1.0</v>
+      </c>
+      <c r="I4">
+        <v>0.7419354838463914</v>
+      </c>
+      <c r="J4">
+        <v>0.29411764705882354</v>
+      </c>
+      <c r="K4">
+        <v>0.41538461540181204</v>
+      </c>
+      <c r="L4">
+        <v>1.0</v>
+      </c>
+      <c r="M4">
+        <v>1.0</v>
+      </c>
+      <c r="N4">
+        <v>0.45714285714285713</v>
+      </c>
+      <c r="O4">
+        <v>0.7307692307692307</v>
+      </c>
+      <c r="P4">
+        <v>0.7428571428571429</v>
+      </c>
+      <c r="Q4">
+        <v>0.5</v>
+      </c>
+      <c r="R4">
+        <v>0.45</v>
+      </c>
+      <c r="S4">
+        <v>0.8</v>
+      </c>
+      <c r="T4">
+        <v>0.29523809523809524</v>
+      </c>
+      <c r="U4">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21">
+      <c r="A5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5">
+        <v>0.75</v>
+      </c>
+      <c r="C5">
+        <v>0.6428571428571429</v>
+      </c>
+      <c r="D5">
+        <v>0.8</v>
+      </c>
+      <c r="E5">
+        <v>0.44285714285714284</v>
+      </c>
+      <c r="F5">
+        <v>0.43529411767594883</v>
+      </c>
+      <c r="G5">
+        <v>0.993750000009209</v>
+      </c>
+      <c r="H5">
+        <v>0.7575757575757576</v>
+      </c>
+      <c r="I5">
+        <v>0.38709677422193656</v>
+      </c>
+      <c r="J5">
+        <v>0.7941176470588235</v>
+      </c>
+      <c r="K5">
+        <v>0.8148148148148148</v>
+      </c>
+      <c r="L5">
+        <v>0.0</v>
+      </c>
+      <c r="M5">
+        <v>0.34285714285714286</v>
+      </c>
+      <c r="N5">
+        <v>0.6181818181930632</v>
+      </c>
+      <c r="O5">
+        <v>0.11538461538461539</v>
+      </c>
+      <c r="P5">
+        <v>0.5385135135138179</v>
+      </c>
+      <c r="Q5">
+        <v>0.8235000000109142</v>
+      </c>
+      <c r="R5">
+        <v>0.8</v>
+      </c>
+      <c r="S5">
+        <v>0.4250000000109142</v>
+      </c>
+      <c r="T5">
+        <v>0.6826420891049694</v>
+      </c>
+      <c r="U5">
+        <v>0.5925925925925926</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21">
+      <c r="A6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6">
+        <v>0.7757575757699894</v>
+      </c>
+      <c r="C6">
+        <v>0.10714285714285714</v>
+      </c>
+      <c r="D6">
+        <v>0.5</v>
+      </c>
+      <c r="E6">
+        <v>0.7090909091046347</v>
+      </c>
+      <c r="F6">
+        <v>0.8076923077060205</v>
+      </c>
+      <c r="G6">
+        <v>0.0</v>
+      </c>
+      <c r="H6">
+        <v>0.696969696969697</v>
+      </c>
+      <c r="I6">
+        <v>0.6857142857142857</v>
+      </c>
+      <c r="J6">
+        <v>0.2</v>
+      </c>
+      <c r="K6">
+        <v>0.6528074572528186</v>
+      </c>
+      <c r="L6">
+        <v>0.35294117647058826</v>
+      </c>
+      <c r="M6">
+        <v>0.5128205128205128</v>
+      </c>
+      <c r="N6">
+        <v>0.8285714285714286</v>
+      </c>
+      <c r="O6">
+        <v>0.5105263158029919</v>
+      </c>
+      <c r="P6">
+        <v>0.68</v>
+      </c>
+      <c r="Q6">
+        <v>0.8</v>
+      </c>
+      <c r="R6">
+        <v>1.0</v>
+      </c>
+      <c r="S6">
+        <v>0.2</v>
+      </c>
+      <c r="T6">
+        <v>0.5992696287392228</v>
+      </c>
+      <c r="U6">
+        <v>0.24842767297046386</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>